--- a/public/template/Excel/template01.xlsx
+++ b/public/template/Excel/template01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Module03\public\template\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E733EB7-14B5-49CB-9F93-057B94D63284}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC76252-9B81-417F-B965-C7BCEF83EB3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="Q547" s="73"/>
       <c r="R547" s="49">
-        <f t="shared" ref="R508:R552" si="1">SUM(M547*N547*Q547)/6/6</f>
+        <f t="shared" ref="R547:R552" si="1">SUM(M547*N547*Q547)/6/6</f>
         <v>0</v>
       </c>
     </row>
@@ -18457,7 +18457,7 @@
       <c r="Q28" s="74"/>
       <c r="R28" s="50"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" customHeight="1">
+    <row r="29" spans="1:19" ht="17.25" thickBot="1">
       <c r="A29" s="68"/>
       <c r="B29" s="69" t="s">
         <v>18</v>
@@ -18507,7 +18507,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="49">
-        <f t="shared" ref="R5:R49" si="2">SUM(M30*N30*Q30)/6/6</f>
+        <f t="shared" ref="R30:R49" si="2">SUM(M30*N30*Q30)/6/6</f>
         <v>0</v>
       </c>
     </row>
@@ -25918,7 +25918,7 @@
       <c r="J501" s="37"/>
       <c r="K501" s="12"/>
     </row>
-    <row r="502" spans="1:18" ht="17.25" thickBot="1">
+    <row r="502" spans="1:18" ht="17.25" hidden="1" thickBot="1">
       <c r="A502" s="29"/>
       <c r="B502" s="26"/>
       <c r="C502" s="26"/>
@@ -27228,7 +27228,7 @@
       <c r="Q30" s="73"/>
       <c r="R30" s="50"/>
     </row>
-    <row r="31" spans="1:18" ht="16.5" customHeight="1">
+    <row r="31" spans="1:18" ht="17.25" thickBot="1">
       <c r="A31" s="68"/>
       <c r="B31" s="69"/>
       <c r="C31" s="69"/>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="49">
-        <f t="shared" ref="R5:R49" si="2">SUM(M32*N32*Q32)/6/6</f>
+        <f t="shared" ref="R32:R49" si="2">SUM(M32*N32*Q32)/6/6</f>
         <v>0</v>
       </c>
     </row>
@@ -34620,7 +34620,7 @@
       <c r="J501" s="37"/>
       <c r="K501" s="12"/>
     </row>
-    <row r="502" spans="1:18" ht="17.25" thickBot="1">
+    <row r="502" spans="1:18" ht="17.25" hidden="1" thickBot="1">
       <c r="A502" s="29"/>
       <c r="B502" s="26"/>
       <c r="C502" s="26"/>
@@ -35341,7 +35341,7 @@
   <dimension ref="A1:U1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>

--- a/public/template/Excel/template01.xlsx
+++ b/public/template/Excel/template01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="先行1階2階" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">壁1階2階!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -187,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="33">
   <si>
     <t>階数</t>
   </si>
@@ -247,25 +246,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ｌ・Ｄ・Ｋ</t>
-  </si>
-  <si>
-    <t>ホール</t>
-  </si>
-  <si>
-    <t>玄関</t>
-  </si>
-  <si>
-    <t>洗面所</t>
-  </si>
-  <si>
-    <t>納戸A</t>
-  </si>
-  <si>
     <t>加工依頼NO.Ｉ－33－438－①</t>
-  </si>
-  <si>
-    <t>トイレ</t>
   </si>
   <si>
     <t>加工依頼NO.Ｉ－33－438－②</t>
@@ -1340,12 +1321,12 @@
   </sheetPr>
   <dimension ref="A1:AA1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B986" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:K1"/>
       <selection pane="topRight" sqref="A1:K1"/>
       <selection pane="bottomLeft" sqref="A1:K1"/>
-      <selection pane="bottomRight" activeCell="P992" sqref="P992"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="16.5"/>
@@ -1369,7 +1350,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="29.25" thickBot="1">
       <c r="A1" s="77" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="78"/>
@@ -1415,22 +1396,22 @@
         <v>11</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1453,7 +1434,7 @@
       <c r="Q3" s="73"/>
       <c r="R3" s="50"/>
       <c r="V3" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1474,7 +1455,7 @@
       <c r="Q4" s="73"/>
       <c r="R4" s="50"/>
       <c r="V4" s="75" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -9592,22 +9573,22 @@
         <v>11</v>
       </c>
       <c r="M505" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N505" s="24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O505" s="24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P505" s="24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q505" s="24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="R505" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X505" s="22"/>
       <c r="Y505" s="22"/>
@@ -17770,12 +17751,12 @@
   </sheetPr>
   <dimension ref="A1:U552"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="M30" sqref="M30:R49"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="16.5"/>
@@ -17799,7 +17780,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" thickBot="1">
       <c r="A1" s="80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -17845,31 +17826,29 @@
         <v>11</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="63"/>
       <c r="C3" s="63"/>
       <c r="D3" s="64"/>
       <c r="E3" s="51"/>
@@ -17885,14 +17864,12 @@
       <c r="Q3" s="74"/>
       <c r="R3" s="49"/>
       <c r="U3" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="68"/>
-      <c r="B4" s="69" t="s">
-        <v>19</v>
-      </c>
+      <c r="B4" s="69"/>
       <c r="C4" s="69"/>
       <c r="D4" s="70"/>
       <c r="E4" s="52"/>
@@ -17908,14 +17885,12 @@
       <c r="Q4" s="74"/>
       <c r="R4" s="50"/>
       <c r="U4" s="75" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="68"/>
-      <c r="B5" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="69"/>
       <c r="C5" s="69"/>
       <c r="D5" s="70"/>
       <c r="E5" s="52"/>
@@ -17933,9 +17908,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="68"/>
-      <c r="B6" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="69"/>
       <c r="C6" s="69"/>
       <c r="D6" s="70"/>
       <c r="E6" s="52"/>
@@ -17953,9 +17926,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="68"/>
-      <c r="B7" s="69" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="69"/>
       <c r="C7" s="69"/>
       <c r="D7" s="70"/>
       <c r="E7" s="52"/>
@@ -17973,9 +17944,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="68"/>
-      <c r="B8" s="69" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="69"/>
       <c r="C8" s="69"/>
       <c r="D8" s="70"/>
       <c r="E8" s="52"/>
@@ -17993,9 +17962,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="68"/>
-      <c r="B9" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="69"/>
       <c r="C9" s="69"/>
       <c r="D9" s="70"/>
       <c r="E9" s="52"/>
@@ -18013,9 +17980,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="68"/>
-      <c r="B10" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B10" s="69"/>
       <c r="C10" s="69"/>
       <c r="D10" s="70"/>
       <c r="E10" s="52"/>
@@ -18033,9 +17998,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="68"/>
-      <c r="B11" s="69" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="69"/>
       <c r="C11" s="69"/>
       <c r="D11" s="70"/>
       <c r="E11" s="52"/>
@@ -18053,9 +18016,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="68"/>
-      <c r="B12" s="69" t="s">
-        <v>16</v>
-      </c>
+      <c r="B12" s="69"/>
       <c r="C12" s="69"/>
       <c r="D12" s="70"/>
       <c r="E12" s="52"/>
@@ -18073,9 +18034,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="68"/>
-      <c r="B13" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="69"/>
       <c r="C13" s="69"/>
       <c r="D13" s="70"/>
       <c r="E13" s="52"/>
@@ -18093,9 +18052,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="68"/>
-      <c r="B14" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B14" s="69"/>
       <c r="C14" s="69"/>
       <c r="D14" s="70"/>
       <c r="E14" s="52"/>
@@ -18113,9 +18070,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="68"/>
-      <c r="B15" s="69" t="s">
-        <v>19</v>
-      </c>
+      <c r="B15" s="69"/>
       <c r="C15" s="69"/>
       <c r="D15" s="70"/>
       <c r="E15" s="52"/>
@@ -18133,9 +18088,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="68"/>
-      <c r="B16" s="69" t="s">
-        <v>19</v>
-      </c>
+      <c r="B16" s="69"/>
       <c r="C16" s="69"/>
       <c r="D16" s="70"/>
       <c r="E16" s="52"/>
@@ -18153,9 +18106,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="68"/>
-      <c r="B17" s="69" t="s">
-        <v>19</v>
-      </c>
+      <c r="B17" s="69"/>
       <c r="C17" s="69"/>
       <c r="D17" s="70"/>
       <c r="E17" s="52"/>
@@ -18173,9 +18124,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="68"/>
-      <c r="B18" s="69" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="69"/>
       <c r="C18" s="69"/>
       <c r="D18" s="70"/>
       <c r="E18" s="52"/>
@@ -18193,9 +18142,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="68"/>
-      <c r="B19" s="69" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="69"/>
       <c r="C19" s="69"/>
       <c r="D19" s="70"/>
       <c r="E19" s="52"/>
@@ -18213,9 +18160,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="68"/>
-      <c r="B20" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B20" s="69"/>
       <c r="C20" s="69"/>
       <c r="D20" s="70"/>
       <c r="E20" s="52"/>
@@ -18233,9 +18178,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="68"/>
-      <c r="B21" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="69"/>
       <c r="C21" s="69"/>
       <c r="D21" s="70"/>
       <c r="E21" s="52"/>
@@ -18253,9 +18196,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="68"/>
-      <c r="B22" s="69" t="s">
-        <v>16</v>
-      </c>
+      <c r="B22" s="69"/>
       <c r="C22" s="69"/>
       <c r="D22" s="70"/>
       <c r="E22" s="52"/>
@@ -18273,9 +18214,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="68"/>
-      <c r="B23" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="70"/>
       <c r="E23" s="52"/>
@@ -18293,9 +18232,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="68"/>
-      <c r="B24" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="B24" s="69"/>
       <c r="C24" s="69"/>
       <c r="D24" s="70"/>
       <c r="E24" s="52"/>
@@ -18313,9 +18250,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="68"/>
-      <c r="B25" s="69" t="s">
-        <v>16</v>
-      </c>
+      <c r="B25" s="69"/>
       <c r="C25" s="69"/>
       <c r="D25" s="70"/>
       <c r="E25" s="52"/>
@@ -18333,9 +18268,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="68"/>
-      <c r="B26" s="69" t="s">
-        <v>21</v>
-      </c>
+      <c r="B26" s="69"/>
       <c r="C26" s="69"/>
       <c r="D26" s="70"/>
       <c r="E26" s="52"/>
@@ -18353,9 +18286,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="68"/>
-      <c r="B27" s="69" t="s">
-        <v>19</v>
-      </c>
+      <c r="B27" s="69"/>
       <c r="C27" s="69"/>
       <c r="D27" s="70"/>
       <c r="E27" s="52"/>
@@ -18373,9 +18304,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="68"/>
-      <c r="B28" s="69" t="s">
-        <v>18</v>
-      </c>
+      <c r="B28" s="69"/>
       <c r="C28" s="69"/>
       <c r="D28" s="70"/>
       <c r="E28" s="52"/>
@@ -18393,9 +18322,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="68"/>
-      <c r="B29" s="69" t="s">
-        <v>18</v>
-      </c>
+      <c r="B29" s="69"/>
       <c r="C29" s="69"/>
       <c r="D29" s="70"/>
       <c r="E29" s="52"/>
@@ -25787,12 +25714,12 @@
   </sheetPr>
   <dimension ref="A1:U552"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32:R49"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="16.5"/>
@@ -25815,7 +25742,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" thickBot="1">
       <c r="A1" s="80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -25861,22 +25788,22 @@
         <v>11</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -25898,7 +25825,7 @@
       <c r="N3" s="48"/>
       <c r="R3" s="50"/>
       <c r="U3" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -25918,7 +25845,7 @@
       <c r="N4" s="48"/>
       <c r="R4" s="50"/>
       <c r="U4" s="75" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -33752,12 +33679,12 @@
   </sheetPr>
   <dimension ref="A1:U1008"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C425" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomRight" activeCell="Y495" sqref="Y495"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="16.5"/>
@@ -33781,7 +33708,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="29.25" thickBot="1">
       <c r="A1" s="77" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="77"/>
       <c r="C1" s="78"/>
@@ -33827,22 +33754,22 @@
         <v>11</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -33864,7 +33791,7 @@
       <c r="N3" s="48"/>
       <c r="R3" s="50"/>
       <c r="U3" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -33884,7 +33811,7 @@
       <c r="N4" s="48"/>
       <c r="R4" s="50"/>
       <c r="U4" s="75" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -41656,22 +41583,22 @@
         <v>11</v>
       </c>
       <c r="M505" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N505" s="24" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O505" s="24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P505" s="24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q505" s="24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R505" s="24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="506" spans="1:18">

--- a/public/template/Excel/template01.xlsx
+++ b/public/template/Excel/template01.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\STModule03\public\template\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2294EA87-DEF2-4A17-B6B4-C598349C0575}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="先行1階2階" sheetId="1" r:id="rId1"/>
@@ -14,11 +20,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">先行1階2階!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">壁1階2階!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">天井1階!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">天井2階!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">壁1階2階!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -150,12 +156,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>user</author>
   </authors>
   <commentList>
-    <comment ref="I111" authorId="0">
+    <comment ref="I111" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -400,9 +406,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -479,7 +485,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -816,7 +822,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -849,7 +855,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
@@ -974,7 +980,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1315,13 +1321,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA1008"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:K1"/>
       <selection pane="topRight" sqref="A1:K1"/>
@@ -1344,7 +1350,7 @@
     <col min="11" max="11" width="6.7109375" style="24" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="22"/>
     <col min="13" max="18" width="9" style="22" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" style="22" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="22" customWidth="1"/>
     <col min="20" max="16384" width="2.7109375" style="22"/>
   </cols>
   <sheetData>
@@ -17745,13 +17751,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U552"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
@@ -25708,7 +25714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -33673,7 +33679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/public/template/Excel/template01.xlsx
+++ b/public/template/Excel/template01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\STModule03\public\template\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Module03_Old\public\template\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2294EA87-DEF2-4A17-B6B4-C598349C0575}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C29C0-4F9D-4701-B896-0EFBD9545FFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">先行1階2階!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">壁1階2階!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">天井1階!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">天井2階!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">壁1階2階!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -95,62 +95,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-幅＜227→ 0
-227≦幅＜455→0.5
-455≦幅＜682→0.75
-682≦幅≦910→1.0</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>user:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-長さ＜1820→長さ/1600=長さ換算
-長さ換算=1.0が上限</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -192,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="18">
   <si>
     <t>階数</t>
   </si>
@@ -260,157 +204,15 @@
   <si>
     <t>加工依頼NO.Ｉ－33－438－③</t>
   </si>
-  <si>
-    <t>換算</t>
-    <rPh sb="0" eb="2">
-      <t>カンサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実枚数</t>
-    <rPh sb="0" eb="1">
-      <t>ジツ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>マイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原幅</t>
-    <rPh sb="0" eb="1">
-      <t>ハラ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ハバ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>原長</t>
-    <rPh sb="0" eb="1">
-      <t>ハラ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>原板坪</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンバン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>幅換算</t>
-    <rPh sb="0" eb="1">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>カンサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長さ換算</t>
-    <rPh sb="0" eb="1">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ 先行ボードは、CSVデータの 幅ｘ長が910x910以下の場合は、長編を加工依頼書の幅に入力する</t>
-    <rPh sb="2" eb="4">
-      <t>センコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>チョウヘン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カコウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>イライ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ CSVデータの 幅ｘ長の入替えは不要</t>
-    <rPh sb="10" eb="11">
-      <t>ハバ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イレカエ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実枚数</t>
-  </si>
-  <si>
-    <t>原長</t>
-  </si>
-  <si>
-    <t>原長</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>幅換算</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>幅換算</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -481,14 +283,6 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -822,7 +616,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -855,7 +649,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
@@ -879,10 +673,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -957,10 +751,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,8 +1143,12 @@
     <col min="10" max="10" width="10.42578125" style="40" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="24" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="22"/>
-    <col min="13" max="18" width="9" style="22" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="3" style="22" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="22" customWidth="1"/>
+    <col min="18" max="19" width="2.7109375" style="22" customWidth="1"/>
     <col min="20" max="16384" width="2.7109375" style="22"/>
   </cols>
   <sheetData>
@@ -1401,24 +1199,6 @@
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="27" t="s">
@@ -1439,9 +1219,6 @@
       <c r="N3" s="48"/>
       <c r="Q3" s="73"/>
       <c r="R3" s="50"/>
-      <c r="V3" s="22" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="28"/>
@@ -1460,9 +1237,7 @@
       <c r="N4" s="48"/>
       <c r="Q4" s="73"/>
       <c r="R4" s="50"/>
-      <c r="V4" s="75" t="s">
-        <v>26</v>
-      </c>
+      <c r="V4" s="75"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="28"/>
@@ -9540,10 +9315,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="20"/>
-      <c r="R503" s="76">
-        <f>SUM(R3:R502)</f>
-        <v>0</v>
-      </c>
+      <c r="R503" s="76"/>
     </row>
     <row r="504" spans="1:27" ht="17.25" thickBot="1"/>
     <row r="505" spans="1:27" s="24" customFormat="1" ht="17.25" thickBot="1">
@@ -9577,24 +9349,6 @@
       </c>
       <c r="K505" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="M505" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N505" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="O505" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="P505" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q505" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R505" s="24" t="s">
-        <v>22</v>
       </c>
       <c r="X505" s="22"/>
       <c r="Y505" s="22"/>
@@ -17715,10 +17469,7 @@
         <v>0</v>
       </c>
       <c r="K1006" s="20"/>
-      <c r="R1006" s="76">
-        <f>SUM(R506:R1005)</f>
-        <v>0</v>
-      </c>
+      <c r="R1006" s="76"/>
     </row>
     <row r="1008" spans="1:18">
       <c r="H1008" s="46">
@@ -17730,10 +17481,7 @@
         <v>0</v>
       </c>
       <c r="K1008" s="30"/>
-      <c r="R1008" s="76">
-        <f>SUM(R503,R1006)</f>
-        <v>0</v>
-      </c>
+      <c r="R1008" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17779,8 +17527,12 @@
     <col min="10" max="10" width="10.42578125" style="40" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="22" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="22"/>
-    <col min="13" max="18" width="9" style="22" customWidth="1"/>
-    <col min="19" max="19" width="11" style="22" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="3" style="22" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" style="22" customWidth="1"/>
+    <col min="16" max="17" width="3" style="22" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" style="22" customWidth="1"/>
     <col min="20" max="16384" width="2.7109375" style="22"/>
   </cols>
   <sheetData>
@@ -17831,24 +17583,6 @@
       <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="62" t="s">
@@ -17869,9 +17603,6 @@
       <c r="N3" s="48"/>
       <c r="Q3" s="74"/>
       <c r="R3" s="49"/>
-      <c r="U3" s="22" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="68"/>
@@ -17890,9 +17621,7 @@
       <c r="N4" s="48"/>
       <c r="Q4" s="74"/>
       <c r="R4" s="50"/>
-      <c r="U4" s="75" t="s">
-        <v>27</v>
-      </c>
+      <c r="U4" s="75"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="68"/>
@@ -25498,10 +25227,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="18"/>
-      <c r="R503" s="76">
-        <f>SUM(R3:R502)</f>
-        <v>0</v>
-      </c>
+      <c r="R503" s="76"/>
     </row>
     <row r="505" spans="1:18">
       <c r="M505" s="24"/>
@@ -25742,7 +25468,10 @@
     <col min="10" max="10" width="10.42578125" style="40" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="22" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="22"/>
-    <col min="13" max="18" width="9" style="22" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="22" customWidth="1"/>
+    <col min="14" max="16" width="3" style="22" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="3" style="22" customWidth="1"/>
     <col min="19" max="16384" width="2.7109375" style="22"/>
   </cols>
   <sheetData>
@@ -25793,24 +25522,6 @@
       <c r="K2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="62" t="s">
@@ -25830,9 +25541,6 @@
       <c r="K3" s="67"/>
       <c r="N3" s="48"/>
       <c r="R3" s="50"/>
-      <c r="U3" s="22" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="68"/>
@@ -25850,9 +25558,7 @@
       <c r="K4" s="72"/>
       <c r="N4" s="48"/>
       <c r="R4" s="50"/>
-      <c r="U4" s="75" t="s">
-        <v>27</v>
-      </c>
+      <c r="U4" s="75"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="68"/>
@@ -33455,10 +33161,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="18"/>
-      <c r="R503" s="76">
-        <f>SUM(R3:R502)</f>
-        <v>0</v>
-      </c>
+      <c r="R503" s="76"/>
     </row>
     <row r="505" spans="1:18">
       <c r="H505" s="46">
@@ -33707,8 +33410,13 @@
     <col min="10" max="10" width="10.42578125" style="40" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" style="24" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="22"/>
-    <col min="13" max="18" width="9" style="22" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="22" customWidth="1"/>
+    <col min="13" max="13" width="3.140625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="3" style="22" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" style="22" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" style="22" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="22" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="22" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="22" customWidth="1"/>
     <col min="20" max="16384" width="2.7109375" style="22"/>
   </cols>
   <sheetData>
@@ -33759,24 +33467,6 @@
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="27" t="s">
@@ -33796,9 +33486,6 @@
       <c r="K3" s="8"/>
       <c r="N3" s="48"/>
       <c r="R3" s="50"/>
-      <c r="U3" s="22" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="28"/>
@@ -33816,9 +33503,7 @@
       <c r="K4" s="12"/>
       <c r="N4" s="48"/>
       <c r="R4" s="50"/>
-      <c r="U4" s="75" t="s">
-        <v>27</v>
-      </c>
+      <c r="U4" s="75"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="28"/>
@@ -41550,10 +41235,7 @@
         <v>0</v>
       </c>
       <c r="K503" s="20"/>
-      <c r="R503" s="76">
-        <f>SUM(R3:R502)</f>
-        <v>0</v>
-      </c>
+      <c r="R503" s="76"/>
     </row>
     <row r="504" spans="1:18" ht="17.25" thickBot="1"/>
     <row r="505" spans="1:18" s="24" customFormat="1" ht="17.25" thickBot="1">
@@ -41587,24 +41269,6 @@
       </c>
       <c r="K505" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="M505" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N505" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O505" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="P505" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q505" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R505" s="24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -49317,10 +48981,7 @@
         <v>0</v>
       </c>
       <c r="K1006" s="20"/>
-      <c r="R1006" s="76">
-        <f>SUM(R506:R1005)</f>
-        <v>0</v>
-      </c>
+      <c r="R1006" s="76"/>
     </row>
     <row r="1008" spans="1:18">
       <c r="H1008" s="46">
@@ -49332,10 +48993,7 @@
         <v>0</v>
       </c>
       <c r="K1008" s="30"/>
-      <c r="R1008" s="76">
-        <f>SUM(R503,R1006)</f>
-        <v>0</v>
-      </c>
+      <c r="R1008" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/public/template/Excel/template01.xlsx
+++ b/public/template/Excel/template01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Module03_Old\public\template\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\03\public\template\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1746CF-FD81-439B-830A-814B4D2B63D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C3EC8-CBD8-465A-9C74-2A2D7A0C5F39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16244,8 +16244,8 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F &amp; 　　 &amp;A</oddHeader>
   </headerFooter>
@@ -23859,8 +23859,8 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F &amp; 　　 &amp;A</oddHeader>
   </headerFooter>
@@ -31483,8 +31483,8 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F &amp; 　　 &amp;A</oddHeader>
   </headerFooter>
@@ -46663,8 +46663,8 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0.19685039370078741" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F &amp; 　　 &amp;A</oddHeader>
   </headerFooter>
